--- a/焦煤/data_input/主焦煤价格-临汾.xlsx
+++ b/焦煤/data_input/主焦煤价格-临汾.xlsx
@@ -431,7 +431,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:E4081"/>
+  <dimension ref="A1:E4083"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -49577,10 +49577,10 @@
         <v>45953</v>
       </c>
       <c r="B4080" t="n">
-        <v>1550</v>
+        <v>1600</v>
       </c>
       <c r="C4080" t="n">
-        <v>-448.115</v>
+        <v>-398.115</v>
       </c>
       <c r="D4080" t="inlineStr"/>
       <c r="E4080" t="inlineStr"/>
@@ -49589,14 +49589,40 @@
       <c r="A4081" s="2" t="n">
         <v>45954</v>
       </c>
-      <c r="B4081" t="inlineStr"/>
-      <c r="C4081" t="inlineStr"/>
+      <c r="B4081" t="n">
+        <v>1600</v>
+      </c>
+      <c r="C4081" t="n">
+        <v>-437.857</v>
+      </c>
       <c r="D4081" t="n">
         <v>275.65</v>
       </c>
       <c r="E4081" t="n">
         <v>366.792</v>
       </c>
+    </row>
+    <row r="4082">
+      <c r="A4082" s="2" t="n">
+        <v>45957</v>
+      </c>
+      <c r="B4082" t="n">
+        <v>1600</v>
+      </c>
+      <c r="C4082" t="inlineStr"/>
+      <c r="D4082" t="inlineStr"/>
+      <c r="E4082" t="inlineStr"/>
+    </row>
+    <row r="4083">
+      <c r="A4083" s="2" t="n">
+        <v>45958</v>
+      </c>
+      <c r="B4083" t="n">
+        <v>1600</v>
+      </c>
+      <c r="C4083" t="inlineStr"/>
+      <c r="D4083" t="inlineStr"/>
+      <c r="E4083" t="inlineStr"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
